--- a/rnaSample/rnaSample_J.PLAGGENBERG_02.24.20.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_02.24.20.xlsx
@@ -83,11 +83,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -116,12 +117,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -195,23 +190,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -235,7 +230,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -250,7 +245,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -295,30 +290,29 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="4" t="n">
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="n">
@@ -336,30 +330,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="n">
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -377,30 +370,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="n">
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
@@ -418,30 +410,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="n">
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -459,30 +450,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="n">
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
@@ -500,30 +490,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="n">
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -541,30 +530,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="n">
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
@@ -582,30 +570,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4" t="n">
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="n">
@@ -623,30 +610,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4" t="n">
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -664,30 +650,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4" t="n">
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I11" s="1" t="n">
@@ -705,30 +690,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="4" t="n">
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I12" s="1" t="n">
@@ -746,30 +730,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4" t="n">
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I13" s="1" t="n">
@@ -787,30 +770,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="4" t="n">
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I14" s="1" t="n">
@@ -828,30 +810,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="4" t="n">
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I15" s="1" t="n">
@@ -869,30 +850,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="4" t="n">
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I16" s="1" t="n">
@@ -910,30 +890,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4" t="n">
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I17" s="1" t="n">
@@ -951,30 +930,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="4" t="n">
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I18" s="1" t="n">
@@ -992,30 +970,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4" t="n">
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="n">
@@ -1033,30 +1010,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="4" t="n">
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I20" s="1" t="n">
@@ -1074,30 +1050,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="4" t="n">
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="G21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="6" t="b">
         <v>0</v>
       </c>
       <c r="I21" s="1" t="n">

--- a/rnaSample/rnaSample_J.PLAGGENBERG_02.24.20.xlsx
+++ b/rnaSample/rnaSample_J.PLAGGENBERG_02.24.20.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="18">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">02.24.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J.Plaggenberg</t>
   </si>
   <si>
     <t xml:space="preserve">DirectZol</t>
@@ -181,7 +178,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,10 +193,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -230,7 +223,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H21"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -303,16 +296,17 @@
       <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>15</v>
+      <c r="E2" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="b">
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="1" t="n">
@@ -320,14 +314,14 @@
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -343,16 +337,17 @@
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>15</v>
+      <c r="E3" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6" t="b">
+      <c r="G3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -360,14 +355,14 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -383,16 +378,17 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
+      <c r="E4" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="b">
+      <c r="G4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I4" s="1" t="n">
@@ -400,14 +396,14 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -423,16 +419,17 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
+      <c r="E5" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="6" t="b">
+      <c r="G5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I5" s="1" t="n">
@@ -440,14 +437,14 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -463,16 +460,17 @@
       <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
+      <c r="E6" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6" t="b">
+      <c r="G6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I6" s="1" t="n">
@@ -480,14 +478,14 @@
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,16 +501,17 @@
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
+      <c r="E7" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="b">
+      <c r="G7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I7" s="1" t="n">
@@ -520,14 +519,14 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -543,16 +542,17 @@
       <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
+      <c r="E8" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6" t="b">
+      <c r="G8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I8" s="1" t="n">
@@ -560,14 +560,14 @@
         <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -583,16 +583,17 @@
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
+      <c r="E9" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="b">
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I9" s="1" t="n">
@@ -600,14 +601,14 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,16 +624,17 @@
       <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
+      <c r="E10" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6" t="b">
+      <c r="G10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I10" s="1" t="n">
@@ -640,14 +642,14 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K10" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -663,16 +665,17 @@
       <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
+      <c r="E11" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6" t="b">
+      <c r="G11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I11" s="1" t="n">
@@ -680,14 +683,14 @@
         <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -703,16 +706,17 @@
       <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
+      <c r="E12" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F12" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6" t="b">
+      <c r="G12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I12" s="1" t="n">
@@ -720,14 +724,14 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K12" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,16 +747,17 @@
       <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
+      <c r="E13" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F13" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="6" t="b">
+      <c r="G13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I13" s="1" t="n">
@@ -760,14 +765,14 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K13" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -783,16 +788,17 @@
       <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
+      <c r="E14" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="6" t="b">
+      <c r="G14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I14" s="1" t="n">
@@ -800,14 +806,14 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,16 +829,17 @@
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>15</v>
+      <c r="E15" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F15" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="6" t="b">
+      <c r="G15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I15" s="1" t="n">
@@ -840,14 +847,14 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K15" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -863,16 +870,17 @@
       <c r="D16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>15</v>
+      <c r="E16" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F16" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6" t="b">
+      <c r="G16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I16" s="1" t="n">
@@ -880,14 +888,14 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K16" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,16 +911,17 @@
       <c r="D17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>15</v>
+      <c r="E17" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F17" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6" t="b">
+      <c r="G17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I17" s="1" t="n">
@@ -920,14 +929,14 @@
         <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K17" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,16 +952,17 @@
       <c r="D18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>15</v>
+      <c r="E18" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F18" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="6" t="b">
+      <c r="G18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I18" s="1" t="n">
@@ -960,14 +970,14 @@
         <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,16 +993,17 @@
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
+      <c r="E19" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F19" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="G19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="6" t="b">
+      <c r="G19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I19" s="1" t="n">
@@ -1000,14 +1011,14 @@
         <v>1</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K19" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,16 +1034,17 @@
       <c r="D20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>15</v>
+      <c r="E20" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F20" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="G20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="6" t="b">
+      <c r="G20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I20" s="1" t="n">
@@ -1040,14 +1052,14 @@
         <v>1</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K20" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,16 +1075,17 @@
       <c r="D21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>15</v>
+      <c r="E21" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="F21" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="6" t="b">
+      <c r="G21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I21" s="1" t="n">
@@ -1080,14 +1093,14 @@
         <v>1</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
